--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,21 +4,42 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="中国联通" sheetId="1" r:id="rId1"/>
     <sheet name="珠海" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="二局" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润达医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威帝股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南兴装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华通医药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -452,14 +473,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>24.52</v>
+      </c>
+      <c r="B1">
+        <v>900</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>25.33</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>13.25</v>
+      </c>
+      <c r="C2">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>12.94</v>
+      </c>
+      <c r="C3">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>18.04</v>
+      </c>
+      <c r="C4">
+        <v>25.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="中国联通" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>华通医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -414,6 +418,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>8.85</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -464,6 +476,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>11.78</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11.88</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -473,10 +507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -503,6 +537,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>21.45</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>21.73</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -514,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="中国联通" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,23 +27,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>润达医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威帝股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南兴装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华通医药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成后涨幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘隔日涨幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞大集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚盛集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电电力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +122,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -484,7 +519,7 @@
         <v>1000</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -495,7 +530,7 @@
         <v>1000</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +580,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -556,7 +591,7 @@
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -568,56 +603,133 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>17</v>
-      </c>
-      <c r="C1">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>20150527</v>
+      </c>
       <c r="B2">
-        <v>13.25</v>
-      </c>
-      <c r="C2">
-        <v>19.079999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>20150528</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>12.93</v>
+      </c>
+      <c r="E2">
+        <v>13.86</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>20150529</v>
       </c>
       <c r="B3">
-        <v>12.94</v>
-      </c>
-      <c r="C3">
-        <v>18.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>20150601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>7.11</v>
+      </c>
+      <c r="E3">
+        <v>7.45</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.7100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>20150601</v>
       </c>
       <c r="B4">
-        <v>18.04</v>
-      </c>
-      <c r="C4">
-        <v>25.98</v>
+        <v>20150602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12.38</v>
+      </c>
+      <c r="E4">
+        <v>12.93</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20150602</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>7.04</v>
       </c>
     </row>
   </sheetData>

--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,24 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="中国联通" sheetId="1" r:id="rId1"/>
-    <sheet name="珠海" sheetId="2" r:id="rId2"/>
-    <sheet name="二局" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="冠弄股份" sheetId="2" r:id="rId1"/>
+    <sheet name="新华医疗" sheetId="5" r:id="rId2"/>
+    <sheet name="新华传媒" sheetId="6" r:id="rId3"/>
+    <sheet name="长城汽车" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,51 +27,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买入日期</t>
+    <t>卖出价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卖出日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成后涨幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大盘隔日涨幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞大集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚盛集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国电电力</t>
+    <t>买入价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +50,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -122,11 +94,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,42 +401,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="B1">
-        <v>2200</v>
+      <c r="A1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9.6199999999999992</v>
+        <v>12.58</v>
       </c>
       <c r="B2">
-        <v>5300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>8.85</v>
-      </c>
-      <c r="B4">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -470,270 +434,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>32.97</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34.61</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3-A3)*B3</f>
+        <v>164.00000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>(C4-A4)*B4</f>
+        <v>63.000000000000256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>11.52</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>11.52</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3-A3)*B3</f>
+        <v>440.0000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1">
-        <v>12.73</v>
-      </c>
-      <c r="B1">
-        <v>1100</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>12.9</v>
+        <v>33.5</v>
       </c>
       <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>35.17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>13.28</v>
+        <v>34.1</v>
       </c>
       <c r="B3">
-        <v>3800</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>11.78</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>11.88</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35.799999999999997</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>24.52</v>
-      </c>
-      <c r="B1">
-        <v>900</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>25.33</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>21.45</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>21.73</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>20150527</v>
-      </c>
-      <c r="B2">
-        <v>20150528</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>12.93</v>
-      </c>
-      <c r="E2">
-        <v>13.86</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6.88E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.44E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>20150529</v>
-      </c>
-      <c r="B3">
-        <v>20150601</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>7.11</v>
-      </c>
-      <c r="E3">
-        <v>7.45</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.7100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>20150601</v>
-      </c>
-      <c r="B4">
-        <v>20150602</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>12.38</v>
-      </c>
-      <c r="E4">
-        <v>12.93</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>20150602</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>7.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="冠弄股份" sheetId="2" r:id="rId1"/>
     <sheet name="新华医疗" sheetId="5" r:id="rId2"/>
     <sheet name="新华传媒" sheetId="6" r:id="rId3"/>
     <sheet name="长城汽车" sheetId="7" r:id="rId4"/>
+    <sheet name="新纶科技" sheetId="8" r:id="rId5"/>
+    <sheet name="新筑股份" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -436,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -596,4 +598,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>12.62</v>
+      </c>
+      <c r="B5">
+        <v>3400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>12.39</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>11.2</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>11.44</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>10.45</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/caopan.xlsx
+++ b/caopan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="冠弄股份" sheetId="2" r:id="rId1"/>
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:B5"/>
+  <dimension ref="A5:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -618,6 +618,14 @@
         <v>3400</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9.75</v>
+      </c>
+      <c r="B9">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,10 +634,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,6 +674,22 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>9.5</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>9.42</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
